--- a/results/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,91 +43,220 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>devastating</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>horrific</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>brutal</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>passionate</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
     <t>0.95-positive</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>only</t>
+    <t>more</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>bei</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -503,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS23"/>
+  <dimension ref="A1:BS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AT1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="BC1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="BL1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -734,193 +863,193 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.008384398243645</v>
+        <v>0.003342363843257984</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.007294556505021668</v>
+        <v>0.1209300307704076</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.00987504176994942</v>
+        <v>0.003864216243463412</v>
       </c>
       <c r="U3">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="W3">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AC3">
-        <v>0.008580854705334215</v>
+        <v>0.05992314643535373</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AE3">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="AF3">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.01205367461608665</v>
+        <v>0.0921719249028551</v>
       </c>
       <c r="AM3">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AN3">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="AO3">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AU3">
-        <v>0.3394322870872128</v>
+        <v>0.04913704612533484</v>
       </c>
       <c r="AV3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="AW3">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="AX3">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="AZ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.01553948716990622</v>
+        <v>0.06923539405260851</v>
       </c>
       <c r="BE3">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="BF3">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="BM3">
-        <v>0.281574046593438</v>
+        <v>0.04464104737351621</v>
       </c>
       <c r="BN3">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="BO3">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="BP3">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="BR3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -928,85 +1057,85 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001291407146279268</v>
+        <v>0.00181836485265778</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>124</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>0.0702573415247546</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>63</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>0.001909801564198633</v>
+      </c>
+      <c r="U4">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.71</v>
-      </c>
-      <c r="F4">
-        <v>0.29</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.001283913226608405</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <v>0.001526360885232012</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
       </c>
       <c r="V4">
         <v>7</v>
       </c>
       <c r="W4">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AC4">
-        <v>0.001498301586357211</v>
+        <v>0.04561399147595164</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1018,43 +1147,43 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4">
-        <v>0.001869754811393714</v>
+        <v>0.05052983775538532</v>
       </c>
       <c r="AM4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN4">
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AU4">
-        <v>0.06901376891666304</v>
+        <v>0.04125701359552957</v>
       </c>
       <c r="AV4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1066,43 +1195,43 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD4">
-        <v>0.002419185093252438</v>
+        <v>0.0419613211811558</v>
       </c>
       <c r="BE4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF4">
         <v>7</v>
       </c>
       <c r="BG4">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="BM4">
-        <v>0.06574741328618633</v>
+        <v>0.03944088296916376</v>
       </c>
       <c r="BN4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1114,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1122,193 +1251,193 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001062390673831115</v>
+        <v>0.001666485804253608</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.0008467541856934201</v>
+        <v>0.04558212415864519</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0.001206503151035703</v>
+        <v>0.001880476293367699</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AC5">
-        <v>0.000955224888688603</v>
+        <v>0.03925403034422854</v>
       </c>
       <c r="AD5">
         <v>3</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5">
-        <v>0.001417129079257793</v>
+        <v>0.04702804072256721</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AU5">
-        <v>0.04719444157715801</v>
+        <v>0.03813521473190119</v>
       </c>
       <c r="AV5">
         <v>3</v>
       </c>
       <c r="AW5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD5">
-        <v>0.001754130564413138</v>
+        <v>0.03862271727580099</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="BM5">
-        <v>0.0474540001942227</v>
+        <v>0.0376688558577985</v>
       </c>
       <c r="BN5">
         <v>3</v>
       </c>
       <c r="BO5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BR5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1316,193 +1445,193 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.000631921625071359</v>
+        <v>0.001647075185768688</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.0008460818955437481</v>
+        <v>0.04456500530215737</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.0006977161892916992</v>
+        <v>0.001817601126395264</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="AC6">
-        <v>0.0009520315104776613</v>
+        <v>0.0380315436550317</v>
       </c>
       <c r="AD6">
         <v>3</v>
       </c>
       <c r="AE6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>0.0007938774754598887</v>
+        <v>0.04534266874497174</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="AU6">
-        <v>0.04697939823616094</v>
+        <v>0.03714706494410674</v>
       </c>
       <c r="AV6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD6">
-        <v>0.0009477355333289922</v>
+        <v>0.03546246547419572</v>
       </c>
       <c r="BE6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BF6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="BM6">
-        <v>0.04720687657471202</v>
+        <v>0.03713126060854924</v>
       </c>
       <c r="BN6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BP6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="BR6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1510,13 +1639,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.000430469048759756</v>
+        <v>0.0008410697644191105</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1528,43 +1657,43 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.0006436373386783825</v>
+        <v>0.03739943165562905</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.0005087869617440039</v>
+        <v>0.0009920783779877717</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1576,43 +1705,43 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AC7">
-        <v>0.0007571342387059602</v>
+        <v>0.03718498024570405</v>
       </c>
       <c r="AD7">
         <v>2</v>
       </c>
       <c r="AE7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.0006232516037979047</v>
+        <v>0.03196801807379115</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1624,43 +1753,43 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AU7">
-        <v>0.04123077475033785</v>
+        <v>0.0368764187299408</v>
       </c>
       <c r="AV7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX7">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AZ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.000806395031084146</v>
+        <v>0.03047822274888415</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1672,31 +1801,31 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="BM7">
-        <v>0.04399113689698629</v>
+        <v>0.03668538479042027</v>
       </c>
       <c r="BN7">
         <v>2</v>
       </c>
       <c r="BO7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BP7">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="BR7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1704,13 +1833,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.000430469048759756</v>
+        <v>0.0008360605725520344</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1722,43 +1851,43 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.0006301915356849433</v>
+        <v>0.03704344005585831</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.0005087869617440039</v>
+        <v>0.0009682847166191604</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1770,43 +1899,43 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AC8">
-        <v>0.0006932666744871244</v>
+        <v>0.03675710990448516</v>
       </c>
       <c r="AD8">
         <v>2</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.0006232516037979047</v>
+        <v>0.03106432851693486</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1818,43 +1947,43 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AU8">
-        <v>0.03692990793039667</v>
+        <v>0.03670648634342061</v>
       </c>
       <c r="AV8">
         <v>2</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AY8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD8">
-        <v>0.000806395031084146</v>
+        <v>0.02961664754750227</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1866,31 +1995,31 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="BM8">
-        <v>0.03904866450677288</v>
+        <v>0.03639492494885856</v>
       </c>
       <c r="BN8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="BR8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1898,13 +2027,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0004250907275623803</v>
+        <v>0.0008310513806849584</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1916,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.0006019553493987213</v>
+        <v>0.03671287642749976</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1940,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.0004832399360564695</v>
+        <v>0.0009444910552505489</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1964,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="AC9">
-        <v>0.0005591447896275691</v>
+        <v>0.03635980173049618</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -1988,19 +2117,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.0005682272407785999</v>
+        <v>0.03016063896007857</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2012,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="AU9">
-        <v>0.03182641446756476</v>
+        <v>0.03629737764278348</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2036,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD9">
-        <v>0.0007042069283340086</v>
+        <v>0.02875507234612039</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2060,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="BM9">
-        <v>0.03657429568757916</v>
+        <v>0.03627135724501478</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2084,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2092,13 +2221,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0004197124063650047</v>
+        <v>0.0008285467847514204</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2110,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.0005938878676026577</v>
+        <v>0.03577204148524852</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2134,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.0004576929103689352</v>
+        <v>0.0009325942245662432</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2158,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="AC10">
-        <v>0.0005208242510962676</v>
+        <v>0.03522900154298909</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2182,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.0005132028777592953</v>
+        <v>0.02970879418165043</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2206,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="AU10">
-        <v>0.03182641446756476</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV10">
         <v>1</v>
@@ -2236,13 +2365,13 @@
         <v>16</v>
       </c>
       <c r="BD10">
-        <v>0.0006020188255838713</v>
+        <v>0.02832428474542944</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2254,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="BM10">
-        <v>0.03657429568757916</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2286,13 +2415,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0004176955359159888</v>
+        <v>0.000663869602121294</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2304,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.0004297638492685936</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2331,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>0.0004481127757361099</v>
+        <v>0.0007418281277375213</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2352,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="AC11">
-        <v>0.0005079495373482485</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2379,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.0004925687416270561</v>
+        <v>0.02653683479114335</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2400,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="AU11">
-        <v>0.03161137112656769</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2424,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.0005636982870525698</v>
+        <v>0.02685356983960709</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2448,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="BM11">
-        <v>0.03632717206806849</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2472,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2480,31 +2609,31 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0004170232457663169</v>
+        <v>0.0006303327115767945</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.0004297638492685936</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2525,34 +2654,34 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>0.0004449193975251681</v>
+        <v>0.0007269570893821392</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="AC12">
-        <v>0.0005079495373482485</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2573,34 +2702,34 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.0004856906962496429</v>
+        <v>0.02597202881810817</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AU12">
-        <v>0.03161137112656769</v>
+        <v>0.03562392685547914</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2618,37 +2747,37 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.0005509247742088027</v>
+        <v>0.02631508533874341</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BH12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ12">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="BM12">
-        <v>0.03632717206806849</v>
+        <v>0.03605224472300051</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2666,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2674,13 +2803,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0004042497329225497</v>
+        <v>0.0006272019666598719</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2692,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.0004290915591189217</v>
+        <v>0.02878446363860558</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2716,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>0.000384245211517274</v>
+        <v>0.0007210086740399865</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2740,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AC13">
-        <v>0.0005047561591373067</v>
+        <v>0.0345963733042709</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2764,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.0003550078340787942</v>
+        <v>0.0257461064288941</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2788,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="AU13">
-        <v>0.03139632778557064</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2812,19 +2941,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.0003082280301772265</v>
+        <v>0.02609969153839794</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2836,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="BM13">
-        <v>0.03608004844855782</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2860,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2868,13 +2997,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0004008882821741899</v>
+        <v>0.0006259496686931028</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2886,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.0004290915591189217</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2913,16 +3042,16 @@
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T14">
-        <v>0.0003682783204625651</v>
+        <v>0.0007180344663689101</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -2934,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AC14">
-        <v>0.0005047561591373067</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2961,16 +3090,16 @@
         <v>1</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.0003206176071917288</v>
+        <v>0.02563314523428706</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -2982,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="AU14">
-        <v>0.03139632778557064</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3006,19 +3135,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.0002443604659583907</v>
+        <v>0.02599199463822521</v>
       </c>
       <c r="BE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3030,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="BM14">
-        <v>0.03608004844855782</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3054,15 +3183,39 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:71">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0.0006253235197097183</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.0004284192689692497</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3080,13 +3233,37 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15">
+        <v>0.0007150602586978336</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="AC15">
-        <v>0.0005015627809263649</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3104,13 +3281,37 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL15">
+        <v>0.02552018403968003</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>2</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>11</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="AU15">
-        <v>0.03139632778557064</v>
+        <v>0.03559245695543013</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3128,13 +3329,37 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD15">
+        <v>0.02588429773805247</v>
+      </c>
+      <c r="BE15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>11</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="BM15">
-        <v>0.03608004844855782</v>
+        <v>0.03602039645027701</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3152,15 +3377,39 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0.0006246973707263339</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.0004284192689692497</v>
+        <v>0.02875903566719338</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3178,13 +3427,37 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16">
+        <v>0.0006436792745919995</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>35</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AC16">
-        <v>0.0005015627809263649</v>
+        <v>0.03456581113704097</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3202,13 +3475,37 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL16">
+        <v>0.02280911536911116</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>35</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AU16">
-        <v>0.03139632778557064</v>
+        <v>0.03537216765508706</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3226,13 +3523,37 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD16">
+        <v>0.0234443107306755</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="BM16">
-        <v>0.03608004844855782</v>
+        <v>0.03579745854121252</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3250,15 +3571,39 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="10:71">
+    <row r="17" spans="1:71">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0.0006096697951251056</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.0004284192689692497</v>
+        <v>0.02858103986730801</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3276,13 +3621,37 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17">
+        <v>0.0006317824439076937</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>39</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="AC17">
-        <v>0.0005015627809263649</v>
+        <v>0.03435187596643153</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3300,13 +3669,37 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL17">
+        <v>0.02235727059068302</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>2</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>39</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="AU17">
-        <v>0.03032111108058533</v>
+        <v>0.03530922785498904</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3324,13 +3717,37 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD17">
+        <v>0.0234443107306755</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="BM17">
-        <v>0.03484443035100446</v>
+        <v>0.03573376199576553</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3348,15 +3765,39 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="10:71">
+    <row r="18" spans="1:71">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.0006071651991915675</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>39</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.0004284192689692497</v>
+        <v>0.02853018392448362</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3374,13 +3815,37 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18">
+        <v>0.0004975262928294241</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AC18">
-        <v>0.0005015627809263649</v>
+        <v>0.03429075163197168</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3398,13 +3863,37 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL18">
+        <v>0.02133157389770962</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AU18">
-        <v>0.02924589437560004</v>
+        <v>0.03527775795494003</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3422,13 +3911,37 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD18">
+        <v>0.02333661383050277</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>1</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="BM18">
-        <v>0.03360881225345112</v>
+        <v>0.03570191372304203</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3446,15 +3959,39 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="10:71">
+    <row r="19" spans="1:71">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0.0004208479567012475</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.0004250578182208899</v>
+        <v>0.02850475595307143</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3472,13 +4009,37 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>0.0004975262928294241</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="AC19">
-        <v>0.000485595889871656</v>
+        <v>0.03426018946474176</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -3496,13 +4057,37 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL19">
+        <v>0.02133157389770962</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AU19">
-        <v>0.0283857210116118</v>
+        <v>0.035183348254793</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -3520,13 +4105,37 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD19">
+        <v>0.02333661383050277</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BM19">
-        <v>0.03262031777540843</v>
+        <v>0.03560636890487153</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -3544,15 +4153,39 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="20" spans="10:71">
+    <row r="20" spans="1:71">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0.0004208479567012475</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.0004216963674725301</v>
+        <v>0.02842847203883484</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -3570,13 +4203,37 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>0.0004945520851583476</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AC20">
-        <v>0.000469628998816947</v>
+        <v>0.034168502963052</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -3594,13 +4251,37 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL20">
+        <v>0.02121861270310259</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="AU20">
-        <v>0.02789808760852019</v>
+        <v>0.03513299134097012</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -3620,323 +4301,3457 @@
       <c r="BA20">
         <v>64</v>
       </c>
+      <c r="BC20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD20">
+        <v>0.02329957213390682</v>
+      </c>
+      <c r="BE20">
+        <v>2</v>
+      </c>
+      <c r="BF20">
+        <v>2</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>35</v>
+      </c>
       <c r="BL20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM20">
+        <v>0.03547897581397754</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0.0004202218077178631</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>0.02832676015318606</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21">
+        <v>0.0004945520851583476</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC21">
+        <v>0.03404625429413231</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL21">
+        <v>0.02121861270310259</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU21">
+        <v>0.03505746865459696</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>18</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD21">
+        <v>0.02322891693033003</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>2</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM21">
+        <v>0.03538343099580704</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>0.0004202218077178631</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22">
+        <v>0.02825047623894947</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22">
+        <v>0.0004915778774872712</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC22">
+        <v>0.03395456779244255</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>21</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL22">
+        <v>0.02110565150849556</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU22">
+        <v>0.03496305895444993</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>21</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD22">
+        <v>0.02322891693033003</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>2</v>
+      </c>
+      <c r="BL22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM22">
+        <v>0.03535158272308354</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>1</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>1</v>
+      </c>
+      <c r="BR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0.0004195956587344785</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <v>0.02822504826753727</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <v>0.0004915778774872712</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC23">
+        <v>0.03392400562521263</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL23">
+        <v>0.02110565150849556</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU23">
+        <v>0.03493158905440092</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>22</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD23">
+        <v>0.02322891693033003</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>2</v>
+      </c>
+      <c r="BL23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM23">
+        <v>0.03535158272308354</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.0004195956587344785</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24">
+        <v>0.02822504826753727</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24">
+        <v>0.0004915778774872712</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24">
+        <v>0.03392400562521263</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>22</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL24">
+        <v>0.02110565150849556</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU24">
+        <v>0.03493158905440092</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>22</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD24">
+        <v>0.02322891693033003</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM24">
+        <v>0.03525603790491304</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0.0004195956587344785</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25">
+        <v>0.02814876435330068</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>25</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25">
+        <v>0.0004915778774872712</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC25">
+        <v>0.03383231912352287</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>25</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL25">
+        <v>0.02110565150849556</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU25">
+        <v>0.03483717935425389</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>25</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD25">
+        <v>0.02301352312998456</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>4</v>
+      </c>
+      <c r="BL25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM25">
+        <v>0.03509297115424533</v>
+      </c>
+      <c r="BN25">
+        <v>2</v>
+      </c>
+      <c r="BO25">
+        <v>2</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>0.0004195956587344785</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26">
+        <v>0.02761477695364457</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>46</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26">
+        <v>0.0004856294621451184</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC26">
+        <v>0.03319051361169452</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>46</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL26">
+        <v>0.02087972911928148</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>4</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU26">
+        <v>0.03417631145322468</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>46</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD26">
+        <v>0.02286878453321588</v>
+      </c>
+      <c r="BE26">
+        <v>2</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>39</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM26">
+        <v>0.03458722417771957</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>0.0004183433607677094</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <v>0.02713164549681285</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>65</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27">
+        <v>0.0004796810468029655</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC27">
+        <v>0.03260983243432601</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>65</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL27">
+        <v>0.02065380673006741</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>6</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU27">
+        <v>0.0335783833522935</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>65</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD27">
+        <v>0.02279812932963909</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>6</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM27">
+        <v>0.0339821069959731</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>0.0004170910628009405</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <v>0.02697907766833968</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>71</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28">
+        <v>0.0004737326314608127</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28">
+        <v>0.03242645943094648</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>71</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL28">
+        <v>0.02042788434085334</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>8</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU28">
+        <v>0.03338956395199943</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>71</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BD28">
+        <v>0.02258273552929362</v>
+      </c>
+      <c r="BE28">
+        <v>1</v>
+      </c>
+      <c r="BF28">
+        <v>1</v>
+      </c>
+      <c r="BG28">
+        <v>1</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>8</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM28">
+        <v>0.03379101735963211</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>0.0004158387648341714</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29">
+        <v>0.02667394201139333</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>83</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BM20">
-        <v>0.02940771072176973</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>1</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>29</v>
+      <c r="T29">
+        <v>0.0004648100084475834</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29">
+        <v>0.03205971342418743</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>83</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL29">
+        <v>0.02008900075703223</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>11</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU29">
+        <v>0.03301192515141132</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>83</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD29">
+        <v>0.02225964482877541</v>
+      </c>
+      <c r="BE29">
+        <v>1</v>
+      </c>
+      <c r="BF29">
+        <v>1</v>
+      </c>
+      <c r="BG29">
+        <v>1</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>11</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM29">
+        <v>0.03340883808695012</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>83</v>
       </c>
     </row>
-    <row r="21" spans="10:71">
-      <c r="J21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21">
-        <v>0.0004190072068738423</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC21">
-        <v>0.0004568554859731799</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>16</v>
-      </c>
-      <c r="AT21" s="1" t="s">
+    <row r="30" spans="1:71">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AU21">
-        <v>0.02559015757865003</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>29</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM21">
-        <v>0.02866947248732475</v>
-      </c>
-      <c r="BN21">
-        <v>2</v>
-      </c>
-      <c r="BO21">
-        <v>2</v>
-      </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
-        <v>1</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>64</v>
+      <c r="B30">
+        <v>0.0004139603178840179</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30">
+        <v>0.01796734720500062</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1103</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30">
+        <v>0.000461835800776507</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC30">
+        <v>0.01849011117410237</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>527</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL30">
+        <v>0.01997603956242519</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>12</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU30">
+        <v>0.01903928952965095</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>527</v>
+      </c>
+      <c r="BC30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD30">
+        <v>0.02215194792860268</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>12</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM30">
+        <v>0.0192682049977167</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>527</v>
       </c>
     </row>
-    <row r="22" spans="10:71">
-      <c r="J22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22">
-        <v>0.0004102674349281069</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC22">
-        <v>0.0004153415692309366</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>29</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU22">
-        <v>0.02531756751655547</v>
-      </c>
-      <c r="AV22">
-        <v>2</v>
-      </c>
-      <c r="AW22">
-        <v>2</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>76</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM22">
-        <v>0.0257039890531967</v>
-      </c>
-      <c r="BN22">
-        <v>2</v>
-      </c>
-      <c r="BO22">
-        <v>2</v>
-      </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
-        <v>1</v>
-      </c>
-      <c r="BR22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS22">
-        <v>76</v>
+    <row r="31" spans="1:71">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>0.0004133341689006333</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31">
+        <v>0.01538392270437842</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>527</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31">
+        <v>0.000461835800776507</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>12</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC31">
+        <v>0.00606351673253403</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1103</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL31">
+        <v>0.01997603956242519</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>12</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU31">
+        <v>0.003958903278676502</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>1103</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD31">
+        <v>0.02215194792860268</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>12</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM31">
+        <v>0.003081631680078924</v>
+      </c>
+      <c r="BN31">
+        <v>3</v>
+      </c>
+      <c r="BO31">
+        <v>3</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>1103</v>
       </c>
     </row>
-    <row r="23" spans="10:71">
-      <c r="J23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23">
-        <v>0.000330264907117144</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>148</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23">
-        <v>3.532956212886357E-05</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>148</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>148</v>
-      </c>
-      <c r="BL23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>1</v>
-      </c>
-      <c r="BR23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS23">
-        <v>148</v>
+    <row r="32" spans="1:71">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0.0004133341689006333</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32">
+        <v>0.002135949598624443</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1048</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32">
+        <v>0.0004558873854343542</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>14</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32">
+        <v>0.002567222047313386</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1048</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL32">
+        <v>0.01975011717321113</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>14</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU32">
+        <v>0.002643471604116827</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>1048</v>
+      </c>
+      <c r="BC32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD32">
+        <v>0.0219365541282572</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>14</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM32">
+        <v>0.002675254908773891</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0.0004120818709338644</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1132</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33">
+        <v>0.0004529131777632777</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>15</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1132</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL33">
+        <v>0.01963715597860409</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>15</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>1132</v>
+      </c>
+      <c r="BC33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD33">
+        <v>0.02182885722808447</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="BG33">
+        <v>1</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>15</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>0.0004114557219504798</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T34">
+        <v>0.0004529131777632777</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>15</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL34">
+        <v>0.01963715597860409</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>15</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD34">
+        <v>0.02182885722808447</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>0.0004114557219504798</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35">
+        <v>0.0004380421394078956</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL35">
+        <v>0.01907235000556891</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>20</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD35">
+        <v>0.02129037272722079</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>1</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:71">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>0.0004083249770335573</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36">
+        <v>0.0004350679317368192</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>21</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL36">
+        <v>0.01895938881096187</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>21</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD36">
+        <v>0.02118267582704806</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
+      <c r="BF36">
+        <v>1</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:71">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>0.0004076988280501728</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37">
+        <v>0.000420196893381437</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>26</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL37">
+        <v>0.0183945828379267</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>26</v>
+      </c>
+      <c r="BC37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD37">
+        <v>0.02064419132618438</v>
+      </c>
+      <c r="BE37">
+        <v>1</v>
+      </c>
+      <c r="BF37">
+        <v>1</v>
+      </c>
+      <c r="BG37">
+        <v>1</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:71">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>0.0004045680831332502</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38">
+        <v>0.0004083000626971313</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>30</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL38">
+        <v>0.01794273805949855</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>30</v>
+      </c>
+      <c r="BC38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD38">
+        <v>0.02021340372549344</v>
+      </c>
+      <c r="BE38">
+        <v>1</v>
+      </c>
+      <c r="BF38">
+        <v>1</v>
+      </c>
+      <c r="BG38">
+        <v>1</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:71">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>0.0004020634871997122</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39">
+        <v>0.0004023516473549785</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>32</v>
+      </c>
+      <c r="AK39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL39">
+        <v>0.01771681567028448</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>32</v>
+      </c>
+      <c r="BC39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD39">
+        <v>0.01999800992514797</v>
+      </c>
+      <c r="BE39">
+        <v>1</v>
+      </c>
+      <c r="BF39">
+        <v>1</v>
+      </c>
+      <c r="BG39">
+        <v>1</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:71">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>0.0004008111892329432</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>32</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40">
+        <v>0.0003190738325648386</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>60</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL40">
+        <v>0.01455390222128748</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>60</v>
+      </c>
+      <c r="BC40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD40">
+        <v>0.01698249672031137</v>
+      </c>
+      <c r="BE40">
+        <v>1</v>
+      </c>
+      <c r="BF40">
+        <v>1</v>
+      </c>
+      <c r="BG40">
+        <v>1</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:71">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>0.0003832790176981768</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41">
+        <v>0.0002060539410639345</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>98</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL41">
+        <v>0.01026137682622011</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>98</v>
+      </c>
+      <c r="BC41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD41">
+        <v>0.01289001451374742</v>
+      </c>
+      <c r="BE41">
+        <v>1</v>
+      </c>
+      <c r="BF41">
+        <v>1</v>
+      </c>
+      <c r="BG41">
+        <v>1</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0.0003594853563295654</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>98</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42">
+        <v>0.0001503776070731437</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>285</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>3</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>285</v>
+      </c>
+      <c r="BC42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>3</v>
+      </c>
+      <c r="BF42">
+        <v>3</v>
+      </c>
+      <c r="BG42">
+        <v>1</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/results/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="89">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,220 +43,226 @@
     <t>name</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>devastating</t>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>corrupt</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>late</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>0.95-positive</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>trusted</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>humane</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>amazed</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>horrific</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>brutal</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>passionate</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>0.95-positive</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>stunning</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
-    <t>bei</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -632,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS42"/>
+  <dimension ref="A1:BS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,25 +649,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AT1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BC1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BL1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -863,13 +869,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.003342363843257984</v>
+        <v>0.005127212481645968</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -881,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.1209300307704076</v>
+        <v>0.03751465286459608</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.003864216243463412</v>
+        <v>0.005983163145748535</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AC3">
-        <v>0.05992314643535373</v>
+        <v>0.0284069044624563</v>
       </c>
       <c r="AD3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.0921719249028551</v>
+        <v>0.007234167962513827</v>
       </c>
       <c r="AM3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AN3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -977,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AU3">
-        <v>0.04913704612533484</v>
+        <v>0.0270299583076246</v>
       </c>
       <c r="AV3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AW3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1001,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.06923539405260851</v>
+        <v>0.2359796684891058</v>
       </c>
       <c r="BE3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BF3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1025,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BM3">
-        <v>0.04464104737351621</v>
+        <v>0.02647354523976848</v>
       </c>
       <c r="BN3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BO3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1057,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00181836485265778</v>
+        <v>0.001845712706610266</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1075,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.0702573415247546</v>
+        <v>0.03218012941368605</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1099,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>0.001909801564198633</v>
+        <v>0.001877974303122586</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AC4">
-        <v>0.04561399147595164</v>
+        <v>0.02720517211233182</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1147,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.05052983775538532</v>
+        <v>0.001925125867255976</v>
       </c>
       <c r="AM4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1171,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AU4">
-        <v>0.04125701359552957</v>
+        <v>0.02645303799266924</v>
       </c>
       <c r="AV4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1195,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.0419613211811558</v>
+        <v>0.05465036351506984</v>
       </c>
       <c r="BE4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1219,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BM4">
-        <v>0.03944088296916376</v>
+        <v>0.02626940105214459</v>
       </c>
       <c r="BN4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1251,13 +1257,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001666485804253608</v>
+        <v>0.001247509752076509</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1269,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.04558212415864519</v>
+        <v>0.03208413165638213</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1293,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T5">
-        <v>0.001880476293367699</v>
+        <v>0.001332897286845965</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1317,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AC5">
-        <v>0.03925403034422854</v>
+        <v>0.02710431367181257</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1341,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.04702804072256721</v>
+        <v>0.001457694453047477</v>
       </c>
       <c r="AM5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1368,10 +1374,10 @@
         <v>61</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AU5">
-        <v>0.03813521473190119</v>
+        <v>0.02644626834389656</v>
       </c>
       <c r="AV5">
         <v>3</v>
@@ -1389,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.03862271727580099</v>
+        <v>0.04604909834132136</v>
       </c>
       <c r="BE5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1416,16 +1422,16 @@
         <v>61</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="BM5">
-        <v>0.0376688558577985</v>
+        <v>0.02614910653428055</v>
       </c>
       <c r="BN5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -1437,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1445,13 +1451,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001647075185768688</v>
+        <v>0.0008372766596090097</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1463,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.04456500530215737</v>
+        <v>0.0297790432880283</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -1487,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.001817601126395264</v>
+        <v>0.0009152147761311611</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1511,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="AC6">
-        <v>0.0380315436550317</v>
+        <v>0.02688395888598206</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -1535,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.04534266874497174</v>
+        <v>0.001029124331048151</v>
       </c>
       <c r="AM6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1559,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AU6">
-        <v>0.03714706494410674</v>
+        <v>0.02635144469444776</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1583,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.03546246547419572</v>
+        <v>0.03487165617736406</v>
       </c>
       <c r="BE6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BF6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1607,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="BM6">
-        <v>0.03713126060854924</v>
+        <v>0.02604721628586454</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1631,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1639,13 +1645,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0008410697644191105</v>
+        <v>0.0006425826076731471</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1660,16 +1666,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.03739943165562905</v>
+        <v>0.02937874031418054</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1681,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.0009920783779877717</v>
+        <v>0.0007558803686887224</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1708,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AC7">
-        <v>0.03718498024570405</v>
+        <v>0.02596676396565489</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -1729,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.03196801807379115</v>
+        <v>0.0009214694040191784</v>
       </c>
       <c r="AM7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1756,16 +1762,16 @@
         <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AU7">
-        <v>0.0368764187299408</v>
+        <v>0.0258391746601788</v>
       </c>
       <c r="AV7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1777,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.03047822274888415</v>
+        <v>0.03424591235495034</v>
       </c>
       <c r="BE7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1804,16 +1810,16 @@
         <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BM7">
-        <v>0.03668538479042027</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1833,13 +1839,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0008360605725520344</v>
+        <v>0.0006372032557774635</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1854,16 +1860,16 @@
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.03704344005585831</v>
+        <v>0.02876140281224706</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1875,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>1092</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.0009682847166191604</v>
+        <v>0.0007303284471842251</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1902,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AC8">
-        <v>0.03675710990448516</v>
+        <v>0.02575587813547826</v>
       </c>
       <c r="AD8">
         <v>2</v>
@@ -1923,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.03106432851693486</v>
+        <v>0.0008664344961633384</v>
       </c>
       <c r="AM8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -1950,16 +1956,16 @@
         <v>10</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AU8">
-        <v>0.03670648634342061</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1971,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD8">
-        <v>0.02961664754750227</v>
+        <v>0.03168437570485231</v>
       </c>
       <c r="BE8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1998,16 +2004,16 @@
         <v>10</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BM8">
-        <v>0.03639492494885856</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2027,13 +2033,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0008310513806849584</v>
+        <v>0.0006365308367905031</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2045,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.03671287642749976</v>
+        <v>0.02681069768739279</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -2069,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.0009444910552505489</v>
+        <v>0.0007271344569961631</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2093,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>0.03635980173049618</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2117,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.03016063896007857</v>
+        <v>0.0008595551326813584</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2141,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AU9">
-        <v>0.03629737764278348</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -2165,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD9">
-        <v>0.02875507234612039</v>
+        <v>0.03136418362359006</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2189,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BM9">
-        <v>0.03627135724501478</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2213,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2221,13 +2227,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0008285467847514204</v>
+        <v>0.0006324963228687404</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2239,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.03577204148524852</v>
+        <v>0.02660997510393912</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2263,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.0009325942245662432</v>
+        <v>0.0007079705158677901</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2287,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AC10">
-        <v>0.03522900154298909</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2311,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.02970879418165043</v>
+        <v>0.0008182789517894786</v>
       </c>
       <c r="AM10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2335,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AU10">
-        <v>0.03562392685547914</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV10">
         <v>1</v>
@@ -2365,13 +2371,13 @@
         <v>16</v>
       </c>
       <c r="BD10">
-        <v>0.02832428474542944</v>
+        <v>0.02944303113601654</v>
       </c>
       <c r="BE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2383,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BM10">
-        <v>0.03605224472300051</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2415,13 +2421,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.000663869602121294</v>
+        <v>0.0006324963228687404</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2433,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.02878446363860558</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2460,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T11">
-        <v>0.0007418281277375213</v>
+        <v>0.0007079705158677901</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2481,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AC11">
-        <v>0.0345963733042709</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2508,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.02653683479114335</v>
+        <v>0.0008182789517894786</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2529,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AU11">
-        <v>0.03562392685547914</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2556,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD11">
-        <v>0.02685356983960709</v>
+        <v>0.02944303113601654</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2577,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="BM11">
-        <v>0.03605224472300051</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2609,7 +2615,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0006303327115767945</v>
+        <v>0.0006217376190773732</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2627,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.02878446363860558</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2654,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T12">
-        <v>0.0007269570893821392</v>
+        <v>0.0006568666728587959</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2675,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AC12">
-        <v>0.0345963733042709</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2702,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.02597202881810817</v>
+        <v>0.0007082091360777986</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2723,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AU12">
-        <v>0.03562392685547914</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2753,13 +2759,13 @@
         <v>19</v>
       </c>
       <c r="BD12">
-        <v>0.02631508533874341</v>
+        <v>0.02465479025719352</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2771,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BM12">
-        <v>0.03605224472300051</v>
+        <v>0.02581528384867264</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2803,13 +2809,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0006272019666598719</v>
+        <v>0.0004290608241023919</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2821,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.02878446363860558</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2848,16 +2854,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T13">
-        <v>0.0007210086740399865</v>
+        <v>0.0005071142359805437</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -2869,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AC13">
-        <v>0.0345963733042709</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2896,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.0257461064288941</v>
+        <v>0.0006211922994947657</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -2917,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AU13">
-        <v>0.03559245695543013</v>
+        <v>0.02574004746756841</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2941,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD13">
-        <v>0.02609969153839794</v>
+        <v>0.02465479025719352</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2965,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BM13">
-        <v>0.03602039645027701</v>
+        <v>0.02580602109881664</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2997,13 +3003,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0006259496686931028</v>
+        <v>0.0004290608241023919</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3015,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.02875903566719338</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3039,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14">
-        <v>0.0007180344663689101</v>
+        <v>0.0005071142359805437</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3063,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AC14">
-        <v>0.03456581113704097</v>
+        <v>0.02555386124792398</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3087,19 +3093,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.02563314523428706</v>
+        <v>0.0006211922994947657</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -3111,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AU14">
-        <v>0.03559245695543013</v>
+        <v>0.02573081171318464</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3141,13 +3147,13 @@
         <v>21</v>
       </c>
       <c r="BD14">
-        <v>0.02599199463822521</v>
+        <v>0.02433459817593127</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3159,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BM14">
-        <v>0.03602039645027701</v>
+        <v>0.02579675834896064</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3183,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3191,13 +3197,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0006253235197097183</v>
+        <v>0.0004283884051154314</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3209,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.02875903566719338</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3233,19 +3239,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T15">
-        <v>0.0007150602586978336</v>
+        <v>0.0005039202457924816</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3257,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AC15">
-        <v>0.03456581113704097</v>
+        <v>0.02554469229878587</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3284,16 +3290,16 @@
         <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02552018403968003</v>
+        <v>0.0006143129360127856</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3305,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.03559245695543013</v>
+        <v>0.02572157595880087</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3329,19 +3335,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD15">
-        <v>0.02588429773805247</v>
+        <v>0.02433459817593127</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3353,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BM15">
-        <v>0.03602039645027701</v>
+        <v>0.02579675834896064</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3385,13 +3391,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0006246973707263339</v>
+        <v>0.0004283884051154314</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3403,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.02875903566719338</v>
+        <v>0.02432234087327691</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3427,109 +3433,109 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16">
+        <v>0.0005039202457924816</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16">
+        <v>0.02553552334964776</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL16">
+        <v>0.0006143129360127856</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU16">
+        <v>0.02572157595880087</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>2</v>
+      </c>
+      <c r="BC16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T16">
-        <v>0.0006436792745919995</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>35</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC16">
-        <v>0.03456581113704097</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL16">
-        <v>0.02280911536911116</v>
-      </c>
-      <c r="AM16">
-        <v>2</v>
-      </c>
-      <c r="AN16">
-        <v>2</v>
-      </c>
-      <c r="AO16">
-        <v>1</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>35</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU16">
-        <v>0.03537216765508706</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>8</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="BD16">
-        <v>0.0234443107306755</v>
+        <v>0.02433459817593127</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3547,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="BM16">
-        <v>0.03579745854121252</v>
+        <v>0.02579675834896064</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3571,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3579,13 +3585,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0006096697951251056</v>
+        <v>0.0004283884051154314</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3597,175 +3603,175 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0.0243136138044311</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>0.0005039202457924816</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC17">
+        <v>0.02553552334964776</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL17">
+        <v>0.0006143129360127856</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU17">
+        <v>0.02572157595880087</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD17">
+        <v>0.02431995783582048</v>
+      </c>
+      <c r="BE17">
+        <v>2</v>
+      </c>
+      <c r="BF17">
+        <v>2</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>33</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM17">
+        <v>0.02578761682936861</v>
+      </c>
+      <c r="BN17">
+        <v>2</v>
+      </c>
+      <c r="BO17">
+        <v>2</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
         <v>35</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17">
-        <v>0.02858103986730801</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17">
-        <v>0.0006317824439076937</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>39</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17">
-        <v>0.03435187596643153</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>8</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL17">
-        <v>0.02235727059068302</v>
-      </c>
-      <c r="AM17">
-        <v>2</v>
-      </c>
-      <c r="AN17">
-        <v>2</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>39</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU17">
-        <v>0.03530922785498904</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>10</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD17">
-        <v>0.0234443107306755</v>
-      </c>
-      <c r="BE17">
-        <v>1</v>
-      </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
-        <v>1</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM17">
-        <v>0.03573376199576553</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>1</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3773,13 +3779,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0006071651991915675</v>
+        <v>0.000427715986128471</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3791,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.02853018392448362</v>
+        <v>0.02430488673558528</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3815,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T18">
-        <v>0.0004975262928294241</v>
+        <v>0.0005007262556044194</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3839,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.03429075163197168</v>
+        <v>0.02553552334964776</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3863,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18">
-        <v>0.02133157389770962</v>
+        <v>0.0006074335725308057</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3887,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AU18">
-        <v>0.03527775795494003</v>
+        <v>0.0257123402044171</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3911,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD18">
-        <v>0.02333661383050277</v>
+        <v>0.02401440609466901</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3935,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="BM18">
-        <v>0.03570191372304203</v>
+        <v>0.02578749559910464</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3959,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3967,7 +3973,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004208479567012475</v>
+        <v>0.000427715986128471</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3985,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.02850475595307143</v>
+        <v>0.02430488673558528</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -4009,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T19">
-        <v>0.0004975262928294241</v>
+        <v>0.0005007262556044194</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4033,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.03426018946474176</v>
+        <v>0.02552635440050964</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4057,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19">
-        <v>0.02133157389770962</v>
+        <v>0.0006074335725308057</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4081,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AU19">
-        <v>0.035183348254793</v>
+        <v>0.02570310445003333</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4105,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BD19">
-        <v>0.02333661383050277</v>
+        <v>0.02401440609466901</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4129,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="BM19">
-        <v>0.03560636890487153</v>
+        <v>0.02577823284924865</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4153,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4161,7 +4167,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0004208479567012475</v>
+        <v>0.0004270435671415106</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4179,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.02842847203883484</v>
+        <v>0.02430488673558528</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4203,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T20">
-        <v>0.0004945520851583476</v>
+        <v>0.0004975322654163573</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4227,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AC20">
-        <v>0.034168502963052</v>
+        <v>0.02551718545137153</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4251,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL20">
-        <v>0.02121861270310259</v>
+        <v>0.0006005542090488257</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4275,19 +4281,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AU20">
-        <v>0.03513299134097012</v>
+        <v>0.02568463294126579</v>
       </c>
       <c r="AV20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4299,19 +4305,19 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BD20">
-        <v>0.02329957213390682</v>
+        <v>0.02369421401340676</v>
       </c>
       <c r="BE20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG20">
         <v>1</v>
@@ -4323,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="BM20">
-        <v>0.03547897581397754</v>
+        <v>0.02575970734953665</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4347,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4355,7 +4361,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004202218077178631</v>
+        <v>0.0004263711481545501</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4373,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.02832676015318606</v>
+        <v>0.02429615966673947</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4397,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T21">
-        <v>0.0004945520851583476</v>
+        <v>0.0004943382752282951</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4421,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AC21">
-        <v>0.03404625429413231</v>
+        <v>0.0254988475530953</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4445,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.02121861270310259</v>
+        <v>0.0005936748455668457</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4469,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AU21">
-        <v>0.03505746865459696</v>
+        <v>0.0256476899237307</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4493,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD21">
-        <v>0.02322891693033003</v>
+        <v>0.02337402193214451</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4517,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BM21">
-        <v>0.03538343099580704</v>
+        <v>0.02572265635011264</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4541,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4549,7 +4555,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004202218077178631</v>
+        <v>0.0004256987291675896</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4567,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.02825047623894947</v>
+        <v>0.02428743259789366</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4591,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22">
-        <v>0.0004915778774872712</v>
+        <v>0.000491144285040233</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4615,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC22">
-        <v>0.03395456779244255</v>
+        <v>0.02546217175654284</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4639,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.02110565150849556</v>
+        <v>0.0005867954820848657</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4663,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AU22">
-        <v>0.03496305895444993</v>
+        <v>0.02563845416934694</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4687,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD22">
-        <v>0.02322891693033003</v>
+        <v>0.02305382985088225</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4711,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="BM22">
-        <v>0.03535158272308354</v>
+        <v>0.02571339360025664</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4735,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4743,7 +4749,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004195956587344785</v>
+        <v>0.0004236814722067083</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4761,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.02822504826753727</v>
+        <v>0.02426997846020204</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4785,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>0.0004915778774872712</v>
+        <v>0.0004815623144760465</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4809,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AC23">
-        <v>0.03392400562521263</v>
+        <v>0.02545300280740473</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4833,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.02110565150849556</v>
+        <v>0.0005661573916389257</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4857,19 +4863,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AU23">
-        <v>0.03493158905440092</v>
+        <v>0.02562675230935207</v>
       </c>
       <c r="AV23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <v>0</v>
@@ -4881,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BD23">
-        <v>0.02322891693033003</v>
+        <v>0.02209325360709549</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4905,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BM23">
-        <v>0.03535158272308354</v>
+        <v>0.02567634260083264</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4929,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4937,7 +4943,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004195956587344785</v>
+        <v>0.0004236814722067083</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4955,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.02822504826753727</v>
+        <v>0.02423507018481879</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4979,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T24">
-        <v>0.0004915778774872712</v>
+        <v>0.0004815623144760465</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5003,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AC24">
-        <v>0.03392400562521263</v>
+        <v>0.02541632701085227</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5027,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.02110565150849556</v>
+        <v>0.0005661573916389257</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5051,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AU24">
-        <v>0.03493158905440092</v>
+        <v>0.02560151115181185</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5075,13 +5081,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BD24">
-        <v>0.02322891693033003</v>
+        <v>0.02209325360709549</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5099,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BM24">
-        <v>0.03525603790491304</v>
+        <v>0.02564855435126464</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5123,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5131,7 +5137,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004195956587344785</v>
+        <v>0.0004223366342327874</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5149,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.02814876435330068</v>
+        <v>0.02422634311597298</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5173,13 +5179,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25">
-        <v>0.0004915778774872712</v>
+        <v>0.0004751743340999222</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5197,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC25">
-        <v>0.03383231912352287</v>
+        <v>0.02538882016343793</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5221,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL25">
-        <v>0.02110565150849556</v>
+        <v>0.0005523986646749657</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5245,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AU25">
-        <v>0.03483717935425389</v>
+        <v>0.02557380388866054</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5269,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="BD25">
-        <v>0.02301352312998456</v>
+        <v>0.02145286944457099</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5293,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BM25">
-        <v>0.03509297115424533</v>
+        <v>0.0255745735826806</v>
       </c>
       <c r="BN25">
         <v>2</v>
@@ -5317,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5325,7 +5331,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004195956587344785</v>
+        <v>0.0004216642152458269</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5343,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.02761477695364457</v>
+        <v>0.02419143484058973</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5367,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26">
-        <v>0.0004856294621451184</v>
+        <v>0.0004719803439118601</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5391,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AC26">
-        <v>0.03319051361169452</v>
+        <v>0.02529713067205679</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5415,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.02087972911928148</v>
+        <v>0.0005455193011929857</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5439,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AU26">
-        <v>0.03417631145322468</v>
+        <v>0.02548144634482283</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5463,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="BD26">
-        <v>0.02286878453321588</v>
+        <v>0.02113267736330873</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>1</v>
@@ -5487,13 +5493,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BM26">
-        <v>0.03458722417771957</v>
+        <v>0.02555592685270464</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5511,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5519,7 +5525,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004183433607677094</v>
+        <v>0.000420319377271906</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5537,13 +5543,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.02713164549681285</v>
+        <v>0.0241652536340523</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5561,13 +5567,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T27">
-        <v>0.0004796810468029655</v>
+        <v>0.0004655923635357358</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5585,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC27">
-        <v>0.03260983243432601</v>
+        <v>0.02528796172291867</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5609,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02065380673006741</v>
+        <v>0.0005317605742290257</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5633,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AU27">
-        <v>0.0335783833522935</v>
+        <v>0.02547221059043907</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5657,13 +5663,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.02279812932963909</v>
+        <v>0.02049229320078422</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5681,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BM27">
-        <v>0.0339821069959731</v>
+        <v>0.02554666410284864</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5705,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5713,7 +5719,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004170910628009405</v>
+        <v>0.0004196469582849456</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5731,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.02697907766833968</v>
+        <v>0.02407798294559418</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5755,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T28">
-        <v>0.0004737326314608127</v>
+        <v>0.0004623983733476737</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5779,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC28">
-        <v>0.03242645943094648</v>
+        <v>0.02526045487550433</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5803,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.02042788434085334</v>
+        <v>0.0005248812107470457</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5827,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AU28">
-        <v>0.03338956395199943</v>
+        <v>0.02544450332728775</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5851,13 +5857,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BD28">
-        <v>0.02258273552929362</v>
+        <v>0.02017210111952197</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5875,13 +5881,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BM28">
-        <v>0.03379101735963211</v>
+        <v>0.02551887585328064</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5899,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5907,7 +5913,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0004158387648341714</v>
+        <v>0.0004169572823371038</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5925,13 +5931,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.02667394201139333</v>
+        <v>0.02406925587674837</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5949,13 +5955,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T29">
-        <v>0.0004648100084475834</v>
+        <v>0.0004496224125954252</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5973,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC29">
-        <v>0.03205971342418743</v>
+        <v>0.02525128592636622</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -5997,13 +6003,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.02008900075703223</v>
+        <v>0.0004973637568191257</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6021,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AU29">
-        <v>0.03301192515141132</v>
+        <v>0.02543526757290398</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6045,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.02225964482877541</v>
+        <v>0.01889133279447296</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6069,13 +6075,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BM29">
-        <v>0.03340883808695012</v>
+        <v>0.02550961310342464</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6093,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6101,7 +6107,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0004139603178840179</v>
+        <v>0.0004156124443631829</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6119,19 +6125,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.01796734720500062</v>
+        <v>0.02404307467021094</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -6143,151 +6149,151 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1103</v>
+        <v>32</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30">
+        <v>0.0004432344322193009</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC30">
+        <v>0.02521461012981376</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
         <v>37</v>
       </c>
-      <c r="T30">
-        <v>0.000461835800776507</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>12</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC30">
-        <v>0.01849011117410237</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>527</v>
-      </c>
       <c r="AK30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL30">
+        <v>0.0004836050298551657</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>20</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU30">
+        <v>0.0253983245553689</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
         <v>37</v>
       </c>
-      <c r="AL30">
-        <v>0.01997603956242519</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>1</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>12</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU30">
-        <v>0.01903928952965095</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>527</v>
-      </c>
       <c r="BC30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD30">
+        <v>0.01825094863194845</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>20</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM30">
+        <v>0.02547256210400064</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
         <v>37</v>
-      </c>
-      <c r="BD30">
-        <v>0.02215194792860268</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>1</v>
-      </c>
-      <c r="BH30">
-        <v>0</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>12</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM30">
-        <v>0.0192682049977167</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>0</v>
-      </c>
-      <c r="BQ30">
-        <v>1</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6295,7 +6301,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0004133341689006333</v>
+        <v>0.000412922768415341</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6313,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.01538392270437842</v>
+        <v>0.02403434760136513</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6337,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>527</v>
+        <v>33</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31">
-        <v>0.000461835800776507</v>
+        <v>0.0004304584714670523</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6361,19 +6367,19 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AC31">
-        <v>0.00606351673253403</v>
+        <v>0.02518710328239942</v>
       </c>
       <c r="AD31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -6385,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1103</v>
+        <v>40</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.01997603956242519</v>
+        <v>0.0004560875759272457</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6409,19 +6415,19 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AU31">
-        <v>0.003958903278676502</v>
+        <v>0.02537061729221759</v>
       </c>
       <c r="AV31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -6433,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>1103</v>
+        <v>40</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02215194792860268</v>
+        <v>0.01697018030689944</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6457,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BM31">
-        <v>0.003081631680078924</v>
+        <v>0.02544477385443264</v>
       </c>
       <c r="BN31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -6481,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>1103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6489,7 +6495,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0004133341689006333</v>
+        <v>0.0004109055114544597</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6507,13 +6513,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.002135949598624443</v>
+        <v>0.02399943932598188</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6531,13 +6537,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1048</v>
+        <v>37</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T32">
-        <v>0.0004558873854343542</v>
+        <v>0.0004208765009028659</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6555,13 +6561,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AC32">
-        <v>0.002567222047313386</v>
+        <v>0.02518710328239942</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6579,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>1048</v>
+        <v>40</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.01975011717321113</v>
+        <v>0.0004354494854813057</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6603,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AU32">
-        <v>0.002643471604116827</v>
+        <v>0.02537061729221759</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6627,13 +6633,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>1048</v>
+        <v>40</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.0219365541282572</v>
+        <v>0.01600960406311268</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6651,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BM32">
-        <v>0.002675254908773891</v>
+        <v>0.02544477385443264</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6675,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>1048</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6683,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0004120818709338644</v>
+        <v>0.0003981295507022111</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6701,13 +6707,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.02397325811944444</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6725,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1132</v>
+        <v>40</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T33">
-        <v>0.0004529131777632777</v>
+        <v>0.0003601906873296852</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6749,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>0.02515042748584696</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6773,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1132</v>
+        <v>44</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.01963715597860409</v>
+        <v>0.0003047415793236858</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6797,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>0.02533367427468251</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6821,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>1132</v>
+        <v>44</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02182885722808447</v>
+        <v>0.00992595451912986</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6845,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="BM33">
-        <v>0</v>
+        <v>0.02540772285500864</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6869,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>1132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:71">
@@ -6877,7 +6883,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0004114557219504798</v>
+        <v>0.0003772845621064371</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6895,13 +6901,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34">
+        <v>0.02397325811944444</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34">
-        <v>0.0004529131777632777</v>
+        <v>0.0002611769914997588</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6919,13 +6949,37 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC34">
+        <v>0.02512292063843262</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>47</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.01963715597860409</v>
+        <v>9.14813113823058E-05</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6943,13 +6997,37 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU34">
+        <v>0.0253059670115312</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>47</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BD34">
-        <v>0.02182885722808447</v>
+        <v>0</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6967,791 +7045,913 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM34">
+        <v>0.02537993460544063</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>1</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:71">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0.0004114557219504798</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>15</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35">
-        <v>0.0004380421394078956</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>20</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL35">
-        <v>0.01907235000556891</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>20</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD35">
-        <v>0.02129037272722079</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>1</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>20</v>
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>0.0239383498440612</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35">
+        <v>0.02510458274015639</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>49</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU35">
+        <v>0.02528749550276366</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>49</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM35">
+        <v>0.02536140910572863</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0.0004083249770335573</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>20</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36">
-        <v>0.0004350679317368192</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>21</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL36">
-        <v>0.01895938881096187</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>21</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD36">
-        <v>0.02118267582704806</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>1</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>21</v>
+      <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.02391216863752376</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>47</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC36">
+        <v>0.0250404000961896</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>56</v>
+      </c>
+      <c r="AT36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU36">
+        <v>0.02522284522207726</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>56</v>
+      </c>
+      <c r="BL36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM36">
+        <v>0.02529656985673663</v>
+      </c>
+      <c r="BN36">
+        <v>1</v>
+      </c>
+      <c r="BO36">
+        <v>1</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>0.0004076988280501728</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>21</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T37">
-        <v>0.000420196893381437</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>26</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL37">
-        <v>0.0183945828379267</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>26</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD37">
-        <v>0.02064419132618438</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>1</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>26</v>
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>0.02389471449983214</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>49</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC37">
+        <v>0.0242619394389972</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>381</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU37">
+        <v>0.02366200273122005</v>
+      </c>
+      <c r="AV37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>225</v>
+      </c>
+      <c r="BL37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM37">
+        <v>0.02373116513107259</v>
+      </c>
+      <c r="BN37">
+        <v>1</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>0.0004045680831332502</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>26</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T38">
-        <v>0.0004083000626971313</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>30</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL38">
-        <v>0.01794273805949855</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>30</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD38">
-        <v>0.02021340372549344</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>1</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>30</v>
+      <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38">
+        <v>0.02383362501791146</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>56</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC38">
+        <v>0.02349084769184831</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>225</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU38">
+        <v>0.0234883608354789</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>381</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM38">
+        <v>0.02320318838928058</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0.0004020634871997122</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>30</v>
-      </c>
-      <c r="S39" s="1" t="s">
+      <c r="J39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39">
+        <v>0.0223587503829693</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>225</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC39">
+        <v>0.02296821759097581</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>282</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU39">
+        <v>0.02313556473134512</v>
+      </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>282</v>
+      </c>
+      <c r="BL39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T39">
-        <v>0.0004023516473549785</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>32</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL39">
-        <v>0.01771681567028448</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>32</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD39">
-        <v>0.01999800992514797</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>1</v>
-      </c>
-      <c r="BH39">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>32</v>
+      <c r="BM39">
+        <v>0.02317576383050447</v>
+      </c>
+      <c r="BN39">
+        <v>4</v>
+      </c>
+      <c r="BO39">
+        <v>4</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.0004008111892329432</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>32</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T40">
-        <v>0.0003190738325648386</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>60</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL40">
-        <v>0.01455390222128748</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>60</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD40">
-        <v>0.01698249672031137</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>1</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>60</v>
+      <c r="J40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40">
+        <v>0.02186130745875804</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>282</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC40">
+        <v>0.02282151440476599</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>298</v>
+      </c>
+      <c r="AT40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU40">
+        <v>0.0229877926612048</v>
+      </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>298</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM40">
+        <v>0.02305498439158457</v>
+      </c>
+      <c r="BN40">
+        <v>1</v>
+      </c>
+      <c r="BO40">
+        <v>1</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
+      <c r="J41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <v>0.02172167435722505</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>298</v>
+      </c>
+      <c r="AB41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B41">
-        <v>0.0003832790176981768</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>60</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41">
-        <v>0.0002060539410639345</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>98</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL41">
-        <v>0.01026137682622011</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>98</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD41">
-        <v>0.01289001451374742</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>1</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>98</v>
+      <c r="AC41">
+        <v>0.01921044847692786</v>
+      </c>
+      <c r="AD41">
+        <v>6</v>
+      </c>
+      <c r="AE41">
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1092</v>
+      </c>
+      <c r="AT41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU41">
+        <v>0.01776649666070277</v>
+      </c>
+      <c r="AV41">
+        <v>6</v>
+      </c>
+      <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>1092</v>
+      </c>
+      <c r="BL41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM41">
+        <v>0.01718300713420025</v>
+      </c>
+      <c r="BN41">
+        <v>6</v>
+      </c>
+      <c r="BO41">
+        <v>6</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>1092</v>
       </c>
     </row>
     <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.0003594853563295654</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>98</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T42">
-        <v>0.0001503776070731437</v>
-      </c>
-      <c r="U42">
-        <v>3</v>
-      </c>
-      <c r="V42">
-        <v>3</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>285</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>3</v>
-      </c>
-      <c r="AN42">
-        <v>3</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>285</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42">
-        <v>3</v>
-      </c>
-      <c r="BF42">
-        <v>3</v>
-      </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>285</v>
+      <c r="J42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42">
+        <v>0.01435602825136007</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1142</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC42">
+        <v>0.01508292133219769</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1142</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU42">
+        <v>0.01519281596130249</v>
+      </c>
+      <c r="AV42">
+        <v>1</v>
+      </c>
+      <c r="AW42">
+        <v>1</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>1142</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM42">
+        <v>0.01523722351312038</v>
+      </c>
+      <c r="BN42">
+        <v>1</v>
+      </c>
+      <c r="BO42">
+        <v>1</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>1</v>
+      </c>
+      <c r="BR42" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71">
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2787</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>2787</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>1</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>2787</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>1</v>
+      </c>
+      <c r="BO43">
+        <v>1</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+      <c r="BQ43">
+        <v>1</v>
+      </c>
+      <c r="BR43" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>2787</v>
       </c>
     </row>
   </sheetData>
